--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2685425.348601883</v>
+        <v>-2688297.536106866</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>12.96137593160512</v>
+        <v>235.5823900110606</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137.7747422113723</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>31.4121191008178</v>
+        <v>31.41211910081812</v>
       </c>
       <c r="S2" t="n">
-        <v>166.0480860457751</v>
+        <v>166.0480860457752</v>
       </c>
       <c r="T2" t="n">
-        <v>214.8408914533948</v>
+        <v>214.8408914533949</v>
       </c>
       <c r="U2" t="n">
         <v>251.1947913090109</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>296.3245933075607</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.9851594170621</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>122.9036642084097</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>102.4908612644791</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91635360245462</v>
+        <v>54.65776984944581</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>37.51282209456945</v>
+        <v>37.51282209456961</v>
       </c>
       <c r="S3" t="n">
-        <v>152.9418864142403</v>
+        <v>152.9418864142404</v>
       </c>
       <c r="T3" t="n">
         <v>196.0978477905146</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.33016539060884</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>139.2590337720312</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>209.2750162478396</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.3313257658442</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>214.3592774477378</v>
+        <v>286.2728898203746</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>38.43463009082021</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2979759655286</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>129.7427737179038</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.01448934540367</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>56.35124001368214</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>5.469106847262377</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>30.18653382983205</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.39384663017711</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>249.9048605514354</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>123.9815576456788</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>169.9685329265976</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="26">
@@ -2612,13 +2612,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541849</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>42.09059921808203</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.9596247345396</v>
+        <v>290.6629296517953</v>
       </c>
       <c r="C2" t="n">
-        <v>204.9596247345396</v>
+        <v>290.6629296517953</v>
       </c>
       <c r="D2" t="n">
-        <v>191.8673258137263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E2" t="n">
-        <v>191.8673258137263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F2" t="n">
-        <v>191.8673258137263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G2" t="n">
-        <v>191.8673258137263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>191.8673258137263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4331,22 +4331,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K2" t="n">
-        <v>72.29021063747828</v>
+        <v>393.1941690829307</v>
       </c>
       <c r="L2" t="n">
-        <v>537.6967643808547</v>
+        <v>537.6967643808586</v>
       </c>
       <c r="M2" t="n">
-        <v>1082.48585348916</v>
+        <v>1082.485853489163</v>
       </c>
       <c r="N2" t="n">
-        <v>1621.458202072882</v>
+        <v>1621.458202072884</v>
       </c>
       <c r="O2" t="n">
-        <v>2085.206869553407</v>
+        <v>2085.206869553408</v>
       </c>
       <c r="P2" t="n">
-        <v>2443.331245135882</v>
+        <v>2443.331245135883</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4370,10 +4370,10 @@
         <v>1281.016567792211</v>
       </c>
       <c r="X2" t="n">
-        <v>981.6987967744731</v>
+        <v>907.5508095311313</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.5594647986613</v>
+        <v>677.2627697159171</v>
       </c>
     </row>
     <row r="3">
@@ -4392,16 +4392,16 @@
         <v>619.828241747056</v>
       </c>
       <c r="E3" t="n">
-        <v>460.5907867416005</v>
+        <v>495.6831263850261</v>
       </c>
       <c r="F3" t="n">
-        <v>314.0562287684855</v>
+        <v>349.148568411911</v>
       </c>
       <c r="G3" t="n">
-        <v>176.344570920354</v>
+        <v>211.4369105637794</v>
       </c>
       <c r="H3" t="n">
-        <v>72.81844843098116</v>
+        <v>107.9107880744066</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4410,19 +4410,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>77.53610029921029</v>
+        <v>77.53610029920989</v>
       </c>
       <c r="L3" t="n">
-        <v>400.5991497132412</v>
+        <v>400.5991497132441</v>
       </c>
       <c r="M3" t="n">
-        <v>974.0294341432655</v>
+        <v>974.0294341432677</v>
       </c>
       <c r="N3" t="n">
-        <v>1578.343725294545</v>
+        <v>1578.343725294547</v>
       </c>
       <c r="O3" t="n">
-        <v>2064.757561067062</v>
+        <v>2064.757561067063</v>
       </c>
       <c r="P3" t="n">
         <v>2438.144479598368</v>
@@ -4489,43 +4489,43 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>127.9485624402644</v>
+        <v>127.9485624402641</v>
       </c>
       <c r="L4" t="n">
-        <v>279.7660730993498</v>
+        <v>279.7660730993492</v>
       </c>
       <c r="M4" t="n">
-        <v>450.2254747981523</v>
+        <v>450.2254747981514</v>
       </c>
       <c r="N4" t="n">
-        <v>622.0663493419065</v>
+        <v>622.0663493419054</v>
       </c>
       <c r="O4" t="n">
-        <v>764.772914720082</v>
+        <v>764.7729147200805</v>
       </c>
       <c r="P4" t="n">
-        <v>863.3623524932106</v>
+        <v>863.3623524932088</v>
       </c>
       <c r="Q4" t="n">
-        <v>847.877336947141</v>
+        <v>863.3623524932088</v>
       </c>
       <c r="R4" t="n">
-        <v>707.2116462683216</v>
+        <v>863.3623524932088</v>
       </c>
       <c r="S4" t="n">
-        <v>495.8227409674735</v>
+        <v>863.3623524932088</v>
       </c>
       <c r="T4" t="n">
-        <v>269.2254422140956</v>
+        <v>863.3623524932088</v>
       </c>
       <c r="U4" t="n">
-        <v>52.70091953961285</v>
+        <v>574.1978173211132</v>
       </c>
       <c r="V4" t="n">
-        <v>52.70091953961285</v>
+        <v>319.5133291152264</v>
       </c>
       <c r="W4" t="n">
-        <v>52.70091953961285</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X4" t="n">
         <v>52.70091953961285</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.2420952837351</v>
+        <v>1351.177942190934</v>
       </c>
       <c r="C5" t="n">
-        <v>781.2420952837351</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="D5" t="n">
-        <v>781.2420952837351</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="E5" t="n">
-        <v>781.2420952837351</v>
+        <v>596.4271726522782</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9714124902719</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4595,22 +4595,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2347.777632691709</v>
       </c>
       <c r="U5" t="n">
-        <v>2225.139236222622</v>
+        <v>2094.08592943686</v>
       </c>
       <c r="V5" t="n">
-        <v>1894.076348879051</v>
+        <v>2094.08592943686</v>
       </c>
       <c r="W5" t="n">
-        <v>1541.307693608937</v>
+        <v>1741.317274166746</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.841935347857</v>
+        <v>1741.317274166746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.841935347857</v>
+        <v>1351.177942190934</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>257.5383372186639</v>
       </c>
       <c r="M6" t="n">
-        <v>898.0836866857685</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686615</v>
@@ -4747,22 +4747,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>998.0755107510752</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>790.6352260034805</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>790.6352260034805</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U7" t="n">
-        <v>501.4830495811603</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V7" t="n">
-        <v>501.4830495811603</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W7" t="n">
-        <v>501.4830495811603</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="X7" t="n">
         <v>273.4934986831429</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1289.13715517095</v>
+        <v>1549.708086818535</v>
       </c>
       <c r="C8" t="n">
-        <v>920.1746382305387</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="D8" t="n">
-        <v>914.6502878797686</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="E8" t="n">
-        <v>914.6502878797686</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4808,10 +4808,10 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L8" t="n">
-        <v>295.8269799488417</v>
+        <v>599.3866842141156</v>
       </c>
       <c r="M8" t="n">
-        <v>927.5447909321535</v>
+        <v>786.0860970395232</v>
       </c>
       <c r="N8" t="n">
         <v>1413.39376509937</v>
@@ -4835,19 +4835,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.339374490333</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>1679.276487146762</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W8" t="n">
-        <v>1679.276487146762</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X8" t="n">
-        <v>1679.276487146762</v>
+        <v>1549.708086818535</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.13715517095</v>
+        <v>1549.708086818535</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>257.5383372186639</v>
       </c>
       <c r="M9" t="n">
-        <v>778.7548643839062</v>
+        <v>898.0836866857685</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>852.0628451424238</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>562.9106687201036</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V10" t="n">
-        <v>562.9106687201036</v>
+        <v>511.0542725044804</v>
       </c>
       <c r="W10" t="n">
-        <v>273.4934986831429</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="X10" t="n">
-        <v>273.4934986831429</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,7 +5598,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
         <v>680.0291294438176</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6075,7 +6075,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,25 +6169,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,25 +6245,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6406,19 +6406,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,22 +6640,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7081,22 +7081,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.99353423516749</v>
+        <v>20.99353423516789</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>408.2853980554802</v>
+        <v>84.13998548432076</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>31.51153138954287</v>
+        <v>31.51153138954311</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>245.8045887635678</v>
+        <v>245.8045887635716</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>345.1708998087249</v>
       </c>
       <c r="N6" t="n">
-        <v>337.5639548971536</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>306.625963904317</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>294.4593548234686</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>345.1708998087249</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>337.5639548971536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>341.7216656890778</v>
+        <v>119.1006516096224</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>413.4169675298155</v>
       </c>
       <c r="H2" t="n">
-        <v>320.1621602536129</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>137.7747422113725</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34.74141624699109</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.1450878629947</v>
@@ -22723,10 +22723,10 @@
         <v>154.7064281204955</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0122106818483</v>
+        <v>130.0122106818484</v>
       </c>
       <c r="J4" t="n">
-        <v>33.5546513873641</v>
+        <v>33.55465138736425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.33016539060903</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.3313257658442</v>
       </c>
       <c r="U4" t="n">
-        <v>71.91361237263681</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>248.0883682457708</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054507</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624163</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.74112246243951</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672782.8058607834</v>
+        <v>672782.8058607823</v>
       </c>
       <c r="C3" t="n">
-        <v>113270.5262772598</v>
+        <v>113270.5262772609</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765846</v>
+        <v>775688.3472765849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
@@ -26399,10 +26399,10 @@
         <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106985.2857189815</v>
+        <v>106985.2857189817</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26430,34 +26430,34 @@
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14888.2837598009</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980082</v>
       </c>
-      <c r="J4" t="n">
-        <v>14888.28375980088</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>14888.2837598009</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980082</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14888.28375980088</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14888.28375980082</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980089</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83906.35803799759</v>
+        <v>83906.35803799756</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-863674.4496177626</v>
+        <v>-864138.7464097862</v>
       </c>
       <c r="C6" t="n">
-        <v>-389780.4165363542</v>
+        <v>-389780.4165363553</v>
       </c>
       <c r="D6" t="n">
         <v>-276509.8902590944</v>
       </c>
       <c r="E6" t="n">
-        <v>-883708.3015971991</v>
+        <v>-883743.0395226352</v>
       </c>
       <c r="F6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="G6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="H6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="I6" t="n">
         <v>-137480.117607348</v>
       </c>
       <c r="J6" t="n">
-        <v>-290413.392013997</v>
+        <v>-290413.3920139971</v>
       </c>
       <c r="K6" t="n">
+        <v>-118052.3996137163</v>
+      </c>
+      <c r="L6" t="n">
         <v>-118052.3996137162</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-118052.3996137163</v>
       </c>
       <c r="M6" t="n">
         <v>-246129.9964294301</v>
@@ -26558,7 +26558,7 @@
         <v>-137480.117607348</v>
       </c>
       <c r="O6" t="n">
-        <v>-118052.3996137162</v>
+        <v>-118052.3996137163</v>
       </c>
       <c r="P6" t="n">
         <v>-118052.3996137162</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.0852838482487</v>
+        <v>469.0852838482475</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,10 +26796,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.0852838482487</v>
+        <v>469.0852838482475</v>
       </c>
       <c r="C3" t="n">
-        <v>124.3908164898164</v>
+        <v>124.3908164898176</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451604</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.1621602536129</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>73.40650737090834</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.2527792389915</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>34.74141624699128</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>139.2590337720313</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>209.2750162478396</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.57806977618282</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>82.90908939706225</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.15869232238765</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>169.358415375355</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>349.2139347734206</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>339.544566848637</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>153.9790580905816</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>2.232782772392568</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.885769985319591</v>
+        <v>1.885769985319586</v>
       </c>
       <c r="H2" t="n">
-        <v>19.31264186215427</v>
+        <v>19.31264186215422</v>
       </c>
       <c r="I2" t="n">
-        <v>72.70114735903361</v>
+        <v>72.70114735903343</v>
       </c>
       <c r="J2" t="n">
-        <v>160.0523702915188</v>
+        <v>160.0523702915184</v>
       </c>
       <c r="K2" t="n">
-        <v>239.8770137700971</v>
+        <v>239.8770137700965</v>
       </c>
       <c r="L2" t="n">
-        <v>297.5886469583216</v>
+        <v>297.5886469583209</v>
       </c>
       <c r="M2" t="n">
-        <v>331.1247089347489</v>
+        <v>331.1247089347481</v>
       </c>
       <c r="N2" t="n">
-        <v>336.4826529055382</v>
+        <v>336.4826529055373</v>
       </c>
       <c r="O2" t="n">
-        <v>317.7310276140165</v>
+        <v>317.7310276140157</v>
       </c>
       <c r="P2" t="n">
-        <v>271.1760811014391</v>
+        <v>271.1760811014384</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6419435021811</v>
+        <v>203.6419435021806</v>
       </c>
       <c r="R2" t="n">
-        <v>118.4569988403319</v>
+        <v>118.4569988403316</v>
       </c>
       <c r="S2" t="n">
-        <v>42.97198354047023</v>
+        <v>42.97198354047012</v>
       </c>
       <c r="T2" t="n">
-        <v>8.254958110736514</v>
+        <v>8.254958110736494</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1508615988255673</v>
+        <v>0.1508615988255669</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.008975893560384</v>
+        <v>1.008975893560381</v>
       </c>
       <c r="H3" t="n">
-        <v>9.744582972017394</v>
+        <v>9.744582972017369</v>
       </c>
       <c r="I3" t="n">
-        <v>34.73886300196936</v>
+        <v>34.73886300196927</v>
       </c>
       <c r="J3" t="n">
-        <v>95.32609527712383</v>
+        <v>95.32609527712358</v>
       </c>
       <c r="K3" t="n">
-        <v>162.9274801456695</v>
+        <v>162.9274801456691</v>
       </c>
       <c r="L3" t="n">
-        <v>219.0761035557316</v>
+        <v>219.0761035557311</v>
       </c>
       <c r="M3" t="n">
-        <v>255.6514796972955</v>
+        <v>255.6514796972948</v>
       </c>
       <c r="N3" t="n">
-        <v>262.4178136501632</v>
+        <v>262.4178136501625</v>
       </c>
       <c r="O3" t="n">
-        <v>240.061032008641</v>
+        <v>240.0610320086404</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6701423413684</v>
+        <v>192.6701423413679</v>
       </c>
       <c r="Q3" t="n">
-        <v>128.7948877464097</v>
+        <v>128.7948877464094</v>
       </c>
       <c r="R3" t="n">
-        <v>62.64501205807368</v>
+        <v>62.64501205807353</v>
       </c>
       <c r="S3" t="n">
-        <v>18.74128468959747</v>
+        <v>18.74128468959742</v>
       </c>
       <c r="T3" t="n">
-        <v>4.066880904306984</v>
+        <v>4.066880904306974</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06637999299739371</v>
+        <v>0.06637999299739354</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8458914954640548</v>
+        <v>0.8458914954640527</v>
       </c>
       <c r="H4" t="n">
-        <v>7.520744386944057</v>
+        <v>7.520744386944037</v>
       </c>
       <c r="I4" t="n">
-        <v>25.43826424540995</v>
+        <v>25.43826424540988</v>
       </c>
       <c r="J4" t="n">
-        <v>59.80452872930867</v>
+        <v>59.80452872930852</v>
       </c>
       <c r="K4" t="n">
-        <v>98.27721192755108</v>
+        <v>98.27721192755082</v>
       </c>
       <c r="L4" t="n">
-        <v>125.7609956074469</v>
+        <v>125.7609956074465</v>
       </c>
       <c r="M4" t="n">
-        <v>132.5973368753336</v>
+        <v>132.5973368753333</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4444685740586</v>
+        <v>129.4444685740583</v>
       </c>
       <c r="O4" t="n">
-        <v>119.5629179225012</v>
+        <v>119.5629179225009</v>
       </c>
       <c r="P4" t="n">
-        <v>102.3067314150344</v>
+        <v>102.3067314150341</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.83187786108554</v>
+        <v>70.83187786108536</v>
       </c>
       <c r="R4" t="n">
-        <v>38.03435760513831</v>
+        <v>38.03435760513821</v>
       </c>
       <c r="S4" t="n">
-        <v>14.74158178913266</v>
+        <v>14.74158178913262</v>
       </c>
       <c r="T4" t="n">
-        <v>3.614263662437324</v>
+        <v>3.614263662437315</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04613953611622123</v>
+        <v>0.04613953611622111</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622667</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,10 +32318,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32795,10 +32795,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.000239683233</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>19.78716272511659</v>
+        <v>343.9325752962807</v>
       </c>
       <c r="L2" t="n">
-        <v>470.1076300438146</v>
+        <v>145.9622174726544</v>
       </c>
       <c r="M2" t="n">
-        <v>550.2920092003087</v>
+        <v>550.2920092003078</v>
       </c>
       <c r="N2" t="n">
-        <v>544.4165137209314</v>
+        <v>544.4165137209307</v>
       </c>
       <c r="O2" t="n">
-        <v>468.4329974550751</v>
+        <v>468.4329974550743</v>
       </c>
       <c r="P2" t="n">
-        <v>361.7417935176522</v>
+        <v>361.7417935176515</v>
       </c>
       <c r="Q2" t="n">
-        <v>193.6512442876363</v>
+        <v>193.6512442876358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.08604117131054</v>
+        <v>25.08604117131014</v>
       </c>
       <c r="L3" t="n">
-        <v>326.3263125394252</v>
+        <v>326.3263125394284</v>
       </c>
       <c r="M3" t="n">
-        <v>579.222509525277</v>
+        <v>579.2225095252765</v>
       </c>
       <c r="N3" t="n">
-        <v>610.4184759103834</v>
+        <v>610.4184759103828</v>
       </c>
       <c r="O3" t="n">
-        <v>491.327106840926</v>
+        <v>491.3271068409255</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1585035669754</v>
+        <v>377.1585035669748</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.8904013962373</v>
+        <v>198.890401396237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>76.00772010166823</v>
+        <v>76.00772010166797</v>
       </c>
       <c r="L4" t="n">
-        <v>153.351020867763</v>
+        <v>153.3510208677627</v>
       </c>
       <c r="M4" t="n">
-        <v>172.1812138371742</v>
+        <v>172.1812138371739</v>
       </c>
       <c r="N4" t="n">
-        <v>173.5766409532872</v>
+        <v>173.5766409532869</v>
       </c>
       <c r="O4" t="n">
-        <v>144.1480458365409</v>
+        <v>144.1480458365405</v>
       </c>
       <c r="P4" t="n">
-        <v>99.58529067992787</v>
+        <v>99.5852906799276</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>526.4813405709519</v>
       </c>
       <c r="N6" t="n">
-        <v>538.2273303038857</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35176,13 +35176,13 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>447.3619799055829</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>490.7565395628448</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35258,10 +35258,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>526.4813405709519</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>538.2273303038857</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402485</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36516,25 +36516,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998997</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
